--- a/Nebraska/AggregatedAmounts/NE_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/AggregatedAmounts/NE_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1AF781-7BFE-4A97-8882-EF38A3613DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F85A340-F027-4AA5-8B7B-5FA08224196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -1008,14 +1008,6 @@
 Estimated</t>
   </si>
   <si>
-    <t>Supply
-Supply
-Demand
-Demand
-Demand
-Demand</t>
-  </si>
-  <si>
     <t>Annual Groundwater Supply
 Annual Surface Water Supply
 Annual Groundwater Demand
@@ -1090,6 +1082,14 @@
   </si>
   <si>
     <t>get from watersource.csv</t>
+  </si>
+  <si>
+    <t>Available Water Supply
+Available Water Supply
+Demand
+Demand
+Demand
+Demand</t>
   </si>
 </sst>
 </file>
@@ -2836,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="102"/>
       <c r="G4" s="103"/>
@@ -3102,7 +3102,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" s="104"/>
       <c r="G10" s="105"/>
@@ -3130,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="104"/>
       <c r="G11" s="105"/>
@@ -3158,7 +3158,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="118" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="F12" s="104"/>
       <c r="G12" s="105"/>
@@ -3186,7 +3186,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F13" s="104"/>
       <c r="G13" s="105"/>
@@ -3213,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3701,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3861,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -3893,7 +3893,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4039,7 +4039,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
@@ -4136,10 +4136,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -4168,10 +4168,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4703,7 +4703,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
@@ -4735,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>11</v>
@@ -4768,7 +4768,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>11</v>
@@ -4830,13 +4830,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4862,7 +4862,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="122" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>11</v>
@@ -5309,7 +5309,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>134</v>

--- a/Nebraska/AggregatedAmounts/NE_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/AggregatedAmounts/NE_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F85A340-F027-4AA5-8B7B-5FA08224196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C367F2-31A7-461A-8A57-47FAF8F713D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="WaterSources" sheetId="9" r:id="rId5"/>
     <sheet name="ReportingUnits" sheetId="4" r:id="rId6"/>
     <sheet name="AggregatedAmounts" sheetId="5" r:id="rId7"/>
+    <sheet name="misc" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="311">
   <si>
     <t>Name</t>
   </si>
@@ -1004,18 +1005,6 @@
     </r>
   </si>
   <si>
-    <t>Modeled,
-Estimated</t>
-  </si>
-  <si>
-    <t>Annual Groundwater Supply
-Annual Surface Water Supply
-Annual Groundwater Demand
-Annual Surface Water Demand
-Total Non-Consumptive Demand
-Net Surface Water Loss Demand</t>
-  </si>
-  <si>
     <t>CalendarYear</t>
   </si>
   <si>
@@ -1054,28 +1043,7 @@
     <t>shapefile</t>
   </si>
   <si>
-    <t>GWDP_Annual
-SWDTotal_Annual
-GWCTotal_Annual
-SWDemandTotal_Annual
-TotalNonConsumptiveUse_Annual
-NetSurfaceWaterLoss_Annual</t>
-  </si>
-  <si>
-    <t>depends on source data use. streamline with prepocessing</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
     <t>get from reportingunits.csv</t>
-  </si>
-  <si>
-    <t>NE_Annual Surface Water Supply
-NE_Annual Groundwater Demand
-NE_Annual Surface Water Demand
-NE_Total Non-Consumptive Demand
-NE_Net Surface Water Loss Demand</t>
   </si>
   <si>
     <t>get from variable.csv</t>
@@ -1084,12 +1052,117 @@
     <t>get from watersource.csv</t>
   </si>
   <si>
-    <t>Available Water Supply
-Available Water Supply
-Demand
-Demand
-Demand
+    <t>NEag_M +  counter</t>
+  </si>
+  <si>
+    <t>NEag_V +  counter</t>
+  </si>
+  <si>
+    <t>WaterSource</t>
+  </si>
+  <si>
+    <t>Benefical Use</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>AggreationInterval</t>
+  </si>
+  <si>
+    <t>GWCIrrigation_Annual</t>
+  </si>
+  <si>
+    <t>GWCMunicipal_Annual</t>
+  </si>
+  <si>
+    <t>Munciipal</t>
+  </si>
+  <si>
+    <t>GWCIndustrial_Annual</t>
+  </si>
+  <si>
+    <t>Indusstrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWDP_Annual </t>
+  </si>
+  <si>
+    <t>Depletion</t>
+  </si>
+  <si>
+    <t>AmountInput</t>
+  </si>
+  <si>
+    <t>Consumptive Use
+Depletion
 Demand</t>
+  </si>
+  <si>
+    <t>NEag_O1</t>
+  </si>
+  <si>
+    <t>SWDTotal_Annual
+GWDP_Annual 
+GWCTotal_Annual
+SWDemandTotal_Annual
+GWCIrrigation_Annual
+GWCMunicipal_Annual
+GWCIndustrial_Annual</t>
+  </si>
+  <si>
+    <t>Total
+Irrigation
+Municipal
+Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> specific to each time series</t>
+  </si>
+  <si>
+    <t>match ben use for now</t>
+  </si>
+  <si>
+    <t>depends on timeseries of interest</t>
+  </si>
+  <si>
+    <t>Depletion_Annual_Total_Surface Water</t>
+  </si>
+  <si>
+    <t>Depletion_Annual_Total_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Total_Groundwater</t>
+  </si>
+  <si>
+    <t>Demand_Annual_Total_Surface Water</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Irrigation_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Munciipal_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Indusstrial_Groundwater</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Depletion_Annual_Total_Surface Water
+Depletion_Annual_Total_Groundwater
+Consumptive Use_Annual_Total_Groundwater
+Consumptive Use_Annual_Irrigation_Groundwater
+Consumptive Use_Annual_Municipal_Groundwater
+Consumptive Use_Annual_Industrial_Groundwater
+Demand_Annual_Total_Surface Water</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1840,9 +1913,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1869,6 +1939,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2188,7 +2263,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2250,7 +2325,7 @@
       <c r="A5" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="116" t="s">
         <v>234</v>
       </c>
       <c r="C5" s="111"/>
@@ -2296,19 +2371,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="112"/>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="114" t="s">
         <v>261</v>
       </c>
     </row>
@@ -2394,7 +2469,7 @@
       <c r="D18" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="115" t="s">
         <v>243</v>
       </c>
       <c r="F18" s="111" t="s">
@@ -2481,7 +2556,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2583,8 +2658,8 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="113" t="s">
-        <v>235</v>
+      <c r="E4" s="119" t="s">
+        <v>279</v>
       </c>
       <c r="F4" s="98"/>
       <c r="G4" s="99"/>
@@ -2792,7 +2867,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -2806,7 +2881,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="F12" s="100"/>
       <c r="G12" s="101"/>
@@ -2836,22 +2911,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G14" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="93.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="136.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -2920,7 +2995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2933,8 +3008,8 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="120" t="s">
-        <v>282</v>
+      <c r="E4" s="119" t="s">
+        <v>280</v>
       </c>
       <c r="F4" s="102"/>
       <c r="G4" s="103"/>
@@ -2948,7 +3023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
@@ -2961,7 +3036,7 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="118">
+      <c r="E5" s="117">
         <v>1</v>
       </c>
       <c r="F5" s="104"/>
@@ -2989,8 +3064,8 @@
       <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="118" t="s">
-        <v>134</v>
+      <c r="E6" s="117" t="s">
+        <v>284</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="105"/>
@@ -3004,7 +3079,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
@@ -3017,7 +3092,7 @@
       <c r="D7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="117" t="s">
         <v>216</v>
       </c>
       <c r="F7" s="104"/>
@@ -3045,7 +3120,7 @@
       <c r="D8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="117" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="104"/>
@@ -3073,7 +3148,7 @@
       <c r="D9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="117" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="104"/>
@@ -3101,8 +3176,8 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="119" t="s">
-        <v>268</v>
+      <c r="E10" s="118" t="s">
+        <v>266</v>
       </c>
       <c r="F10" s="104"/>
       <c r="G10" s="105"/>
@@ -3129,8 +3204,8 @@
       <c r="D11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="118" t="s">
-        <v>267</v>
+      <c r="E11" s="117" t="s">
+        <v>265</v>
       </c>
       <c r="F11" s="104"/>
       <c r="G11" s="105"/>
@@ -3144,7 +3219,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>151</v>
       </c>
@@ -3157,8 +3232,8 @@
       <c r="D12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="118" t="s">
-        <v>285</v>
+      <c r="E12" s="117" t="s">
+        <v>294</v>
       </c>
       <c r="F12" s="104"/>
       <c r="G12" s="105"/>
@@ -3172,7 +3247,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -3185,8 +3260,8 @@
       <c r="D13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="118" t="s">
-        <v>266</v>
+      <c r="E13" s="117" t="s">
+        <v>310</v>
       </c>
       <c r="F13" s="104"/>
       <c r="G13" s="105"/>
@@ -3214,7 +3289,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3317,7 +3392,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="F4" s="98"/>
       <c r="G4" s="99"/>
@@ -3701,7 +3776,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3861,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -3893,7 +3968,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -3936,7 +4011,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4039,7 +4114,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -4103,7 +4178,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
@@ -4136,10 +4211,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -4168,10 +4243,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -4229,7 +4304,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4409,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4639,7 +4714,7 @@
       <c r="E9" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="123" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="39" t="s">
@@ -4703,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
@@ -4735,7 +4810,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>11</v>
@@ -4768,7 +4843,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>11</v>
@@ -4799,7 +4874,7 @@
       <c r="D14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="122" t="s">
+      <c r="E14" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F14" s="24" t="s">
@@ -4816,7 +4891,7 @@
       </c>
       <c r="J14" s="50"/>
     </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -4829,14 +4904,14 @@
       <c r="D15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="122" t="s">
-        <v>279</v>
+      <c r="E15" s="121" t="s">
+        <v>300</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="G15" s="120" t="s">
+        <v>296</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4848,7 +4923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4861,14 +4936,14 @@
       <c r="D16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="122" t="s">
-        <v>280</v>
+      <c r="E16" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>11</v>
+        <v>298</v>
+      </c>
+      <c r="G16" s="126" t="s">
+        <v>297</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
@@ -4891,7 +4966,7 @@
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -4923,7 +4998,7 @@
       <c r="D18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="122" t="s">
+      <c r="E18" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F18" s="24" t="s">
@@ -4955,7 +5030,7 @@
       <c r="D19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F19" s="24" t="s">
@@ -4987,8 +5062,8 @@
       <c r="D20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="123">
-        <v>44403</v>
+      <c r="E20" s="122">
+        <v>44683</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>11</v>
@@ -5019,7 +5094,7 @@
       <c r="D21" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F21" s="24" t="s">
@@ -5051,7 +5126,7 @@
       <c r="D22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F22" s="24" t="s">
@@ -5083,7 +5158,7 @@
       <c r="D23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F23" s="24" t="s">
@@ -5115,7 +5190,7 @@
       <c r="D24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -5147,7 +5222,7 @@
       <c r="D25" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F25" s="24" t="s">
@@ -5179,7 +5254,7 @@
       <c r="D26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F26" s="24" t="s">
@@ -5211,7 +5286,7 @@
       <c r="D27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -5243,7 +5318,7 @@
       <c r="D28" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="122" t="s">
+      <c r="E28" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F28" s="24" t="s">
@@ -5273,8 +5348,8 @@
       <c r="D29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="122" t="s">
-        <v>214</v>
+      <c r="E29" s="121" t="s">
+        <v>299</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>11</v>
@@ -5305,11 +5380,11 @@
       <c r="D30" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="122" t="s">
+      <c r="E30" s="121" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>134</v>
@@ -5337,7 +5412,7 @@
       <c r="D31" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="122" t="s">
+      <c r="E31" s="121" t="s">
         <v>215</v>
       </c>
       <c r="F31" s="24" t="s">
@@ -5369,7 +5444,7 @@
       <c r="D32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="122" t="s">
+      <c r="E32" s="121" t="s">
         <v>204</v>
       </c>
       <c r="F32" s="24" t="s">
@@ -5401,7 +5476,7 @@
       <c r="D33" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="122" t="s">
+      <c r="E33" s="121" t="s">
         <v>203</v>
       </c>
       <c r="F33" s="24" t="s">
@@ -54641,4 +54716,337 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAA3613-E4A2-42C6-A403-316F0FCC1CEC}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="str">
+        <f>B2&amp;"_"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2</f>
+        <v>Depletion_Annual_Total_Surface Water</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="0">B3&amp;"_"&amp;C3&amp;"_"&amp;D3&amp;"_"&amp;E3</f>
+        <v>Depletion_Annual_Total_Groundwater</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Consumptive Use_Annual_Total_Groundwater</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Consumptive Use_Annual_Irrigation_Groundwater</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Consumptive Use_Annual_Municipal_Groundwater</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Consumptive Use_Annual_Industrial_Groundwater</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="str">
+        <f>B8&amp;"_"&amp;C8&amp;"_"&amp;D8&amp;"_"&amp;E8</f>
+        <v>Demand_Annual_Total_Surface Water</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="124" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="124" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="124" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Nebraska/AggregatedAmounts/NE_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/AggregatedAmounts/NE_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C367F2-31A7-461A-8A57-47FAF8F713D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DA636-345B-4220-9D30-839A4D61A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="1" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -750,9 +750,6 @@
     <t>NEDNR_Aggregate</t>
   </si>
   <si>
-    <t>Surface Ground Water</t>
-  </si>
-  <si>
     <t>Surface and groundwater water conditions.</t>
   </si>
   <si>
@@ -1163,6 +1160,9 @@
 Consumptive Use_Annual_Municipal_Groundwater
 Consumptive Use_Annual_Industrial_Groundwater
 Demand_Annual_Total_Surface Water</t>
+  </si>
+  <si>
+    <t>Surface Water &amp; Groundwater</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2315,7 @@
         <v>231</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="111" t="s">
         <v>232</v>
@@ -2333,7 +2333,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="112"/>
       <c r="B6" s="111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="111"/>
     </row>
@@ -2354,19 +2354,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="112"/>
       <c r="B11" s="111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="112"/>
       <c r="B12" s="111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2384,114 +2384,114 @@
         <v>194</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="112"/>
       <c r="B14" s="111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="111" t="s">
-        <v>242</v>
-      </c>
       <c r="F14" s="111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="112"/>
       <c r="B15" s="111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" s="111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E15" s="111" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="112"/>
       <c r="B16" s="111" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="111" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="111" t="s">
+      <c r="E16" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="111" t="s">
-        <v>242</v>
-      </c>
       <c r="F16" s="111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="112"/>
       <c r="B17" s="111" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="111" t="s">
         <v>240</v>
-      </c>
-      <c r="C17" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>241</v>
       </c>
       <c r="E17" s="111" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" s="111" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="112"/>
       <c r="B19" s="111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E19" s="111" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>233</v>
       </c>
       <c r="B23" s="111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="112"/>
       <c r="B24" s="111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2555,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2659,7 +2659,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="98"/>
       <c r="G4" s="99"/>
@@ -2687,7 +2687,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="F5" s="100"/>
       <c r="G5" s="101"/>
@@ -2799,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" s="100"/>
       <c r="G9" s="101"/>
@@ -2825,7 +2825,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="100"/>
       <c r="G10" s="101"/>
@@ -2911,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G14" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="102"/>
       <c r="G4" s="103"/>
@@ -3065,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="105"/>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="104"/>
       <c r="G10" s="105"/>
@@ -3205,7 +3205,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="104"/>
       <c r="G11" s="105"/>
@@ -3233,7 +3233,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F12" s="104"/>
       <c r="G12" s="105"/>
@@ -3261,7 +3261,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F13" s="104"/>
       <c r="G13" s="105"/>
@@ -3392,7 +3392,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="98"/>
       <c r="G4" s="99"/>
@@ -3776,7 +3776,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -3968,7 +3968,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4114,7 +4114,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
@@ -4211,10 +4211,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -4243,10 +4243,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -4778,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
@@ -4810,7 +4810,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>11</v>
@@ -4843,7 +4843,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>11</v>
@@ -4905,13 +4905,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G15" s="120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4940,10 +4940,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G16" s="126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
@@ -5349,7 +5349,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="121" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>11</v>
@@ -5384,7 +5384,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>134</v>
@@ -54737,19 +54737,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="125" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="125" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="125" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" s="125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F1" s="125"/>
       <c r="G1" s="125" t="s">
@@ -54758,16 +54758,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
         <v>108</v>
@@ -54779,19 +54779,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
         <v>291</v>
       </c>
-      <c r="B3" t="s">
-        <v>292</v>
-      </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G7" si="0">B3&amp;"_"&amp;C3&amp;"_"&amp;D3&amp;"_"&amp;E3</f>
@@ -54800,19 +54800,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -54821,19 +54821,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
         <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -54842,19 +54842,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -54863,19 +54863,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -54884,16 +54884,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
         <v>108</v>
@@ -54905,144 +54905,144 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="124" t="s">
         <v>108</v>
       </c>
       <c r="F10" s="124"/>
       <c r="G10" s="124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="124" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="124" t="s">
-        <v>292</v>
-      </c>
       <c r="C11" s="124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D11" s="124" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="124" t="s">
         <v>197</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E12" s="124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="124" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D13" s="124" t="s">
         <v>199</v>
       </c>
       <c r="E13" s="124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F13" s="124"/>
       <c r="G13" s="124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
         <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
         <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E16" s="124" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
